--- a/templates/humanitarian-template.xlsx
+++ b/templates/humanitarian-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE7F3A6F-2D78-42F1-A6C7-0C8C535780F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E82891-8A67-4597-9CB5-DC46D9E1D27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11055" xr2:uid="{7153E05D-29CB-4406-97C0-885DD7E80E53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7153E05D-29CB-4406-97C0-885DD7E80E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">Уговор бр </t>
-  </si>
-  <si>
-    <t>Матични број</t>
-  </si>
-  <si>
-    <t>ПИБ</t>
   </si>
   <si>
     <r>
@@ -154,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -353,9 +347,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,7 +390,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,10 +424,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,16 +443,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,9 +552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +592,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +698,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,8 +851,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A7:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,8 +861,8 @@
     <col min="2" max="2" width="7.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="7" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="7" customWidth="1"/>
@@ -887,18 +901,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -918,16 +932,16 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="25">
         <v>0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -967,37 +981,37 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
@@ -1005,10 +1019,10 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="43">
+      <c r="D24" s="42">
         <v>0</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1045,8 +1059,8 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1057,10 +1071,8 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -1071,9 +1083,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -1127,74 +1137,74 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="48"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="34"/>
+      <c r="D38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="33"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1217,10 +1227,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -1233,10 +1243,10 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="34"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1260,7 +1270,7 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -1276,41 +1286,41 @@
       <c r="I44" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="G46" s="39" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="G46" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="G47" s="40" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="G47" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
     </row>
     <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B46:D47"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="G46:I46"/>
@@ -1320,6 +1330,7 @@
     <mergeCell ref="D33:J37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D22:J23"/>
   </mergeCells>
   <pageMargins left="0.32291666666666669" right="0.32291666666666669" top="0.26041666666666669" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
